--- a/Benchmarking/liquid, olivine/PythonInput_OlLiq_Thermometers_NewBeattie.xlsx
+++ b/Benchmarking/liquid, olivine/PythonInput_OlLiq_Thermometers_NewBeattie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PyMME/MyBarometers/Thermobar_outer/Benchmarking/liquid_only/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\liquid, olivine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{F1FEFD3B-A985-4A79-B79C-49E8D7EE491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBEDA4C2-D046-409D-B73B-A0A775EF4184}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF38EE97-0640-4880-ADA4-2B544994A110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="1" xr2:uid="{81A2371C-1752-7741-8A48-BEC2C378A224}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81A2371C-1752-7741-8A48-BEC2C378A224}"/>
   </bookViews>
   <sheets>
     <sheet name="SM Tab4_editedMM" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Error_Example_Abs" sheetId="2" r:id="rId4"/>
     <sheet name="Error_Example_Perc" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -373,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,12 +427,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -920,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93241BA4-AD6A-476B-89F9-77C94F1FACB0}">
   <dimension ref="A1:AT12"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1174,7 @@
         <v>1083.346424484253</v>
       </c>
       <c r="AI2" s="5">
-        <v>1112.2460705426815</v>
+        <v>1122.3144567396062</v>
       </c>
       <c r="AJ2" s="5">
         <v>1122.2685750806245</v>
@@ -1205,7 +1199,7 @@
       </c>
       <c r="AQ2" s="18"/>
       <c r="AR2" s="5">
-        <v>1119.2897537682315</v>
+        <v>1129.4093300359746</v>
       </c>
       <c r="AS2" s="3">
         <v>987.10951006439791</v>
@@ -1318,7 +1312,7 @@
         <v>1066.1953080177309</v>
       </c>
       <c r="AI3" s="5">
-        <v>1047.0911932799968</v>
+        <v>1056.6860654538614</v>
       </c>
       <c r="AJ3" s="5">
         <v>1056.6437633836513</v>
@@ -1343,7 +1337,7 @@
       </c>
       <c r="AQ3" s="18"/>
       <c r="AR3" s="5">
-        <v>1074.7856492695705</v>
+        <v>1084.5817913072274</v>
       </c>
       <c r="AS3" s="3">
         <v>913.43225498173422</v>
@@ -1456,7 +1450,7 @@
         <v>1054.6644475936889</v>
       </c>
       <c r="AI4" s="5">
-        <v>1053.9348933448223</v>
+        <v>1063.5795022089615</v>
       </c>
       <c r="AJ4" s="5">
         <v>1063.5368307437802</v>
@@ -1481,7 +1475,7 @@
       </c>
       <c r="AQ4" s="18"/>
       <c r="AR4" s="5">
-        <v>1070.1557311388674</v>
+        <v>1079.9182251788206</v>
       </c>
       <c r="AS4" s="3">
         <v>938.14796363326047</v>
@@ -1594,7 +1588,7 @@
         <v>1040.0928015708923</v>
       </c>
       <c r="AI5" s="5">
-        <v>996.39321584873335</v>
+        <v>1005.6196397304203</v>
       </c>
       <c r="AJ5" s="5">
         <v>1005.5800259131591</v>
@@ -1619,7 +1613,7 @@
       </c>
       <c r="AQ5" s="18"/>
       <c r="AR5" s="5">
-        <v>1031.6321503206809</v>
+        <v>1041.1146736738301</v>
       </c>
       <c r="AS5" s="3">
         <v>842.89581300247107</v>
@@ -1732,7 +1726,7 @@
         <v>1095.0082626342773</v>
       </c>
       <c r="AI6" s="5">
-        <v>1058.5052222885561</v>
+        <v>1068.1830460851111</v>
       </c>
       <c r="AJ6" s="5">
         <v>1068.1401270700385</v>
@@ -1757,7 +1751,7 @@
       </c>
       <c r="AQ6" s="18"/>
       <c r="AR6" s="5">
-        <v>1095.0345560474702</v>
+        <v>1104.9778573111712</v>
       </c>
       <c r="AS6" s="3">
         <v>968.47352879813695</v>
@@ -1870,7 +1864,7 @@
         <v>1081.0823549270631</v>
       </c>
       <c r="AI7" s="6">
-        <v>1048.1903716633446</v>
+        <v>1057.79323213218</v>
       </c>
       <c r="AJ7" s="6">
         <v>1057.7508708371743</v>
@@ -1895,7 +1889,7 @@
       </c>
       <c r="AQ7" s="19"/>
       <c r="AR7" s="6">
-        <v>1085.5794209259743</v>
+        <v>1095.4540068569472</v>
       </c>
       <c r="AS7" s="2">
         <v>945.62389919379893</v>
@@ -2008,7 +2002,7 @@
         <v>1065.3583392143248</v>
       </c>
       <c r="AI8" s="6">
-        <v>1044.4840320119906</v>
+        <v>1054.0599566032233</v>
       </c>
       <c r="AJ8" s="6">
         <v>1054.0177948496753</v>
@@ -2033,7 +2027,7 @@
       </c>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="6">
-        <v>1072.5839307993188</v>
+        <v>1082.3640718158044</v>
       </c>
       <c r="AS8" s="2">
         <v>922.92537659640368</v>
@@ -2146,7 +2140,7 @@
         <v>1093.9900131225586</v>
       </c>
       <c r="AI9" s="6">
-        <v>1108.5777967873973</v>
+        <v>1148.7447046416341</v>
       </c>
       <c r="AJ9" s="6">
         <v>1148.6997531189481</v>
@@ -2171,7 +2165,7 @@
       </c>
       <c r="AQ9" s="19"/>
       <c r="AR9" s="6">
-        <v>1104.0700594674859</v>
+        <v>1144.1059271342265</v>
       </c>
       <c r="AS9" s="2">
         <v>896.46920575987042</v>
@@ -2284,7 +2278,7 @@
         <v>1084.8847537994386</v>
       </c>
       <c r="AI10" s="6">
-        <v>1056.6945522508249</v>
+        <v>1095.3532111523195</v>
       </c>
       <c r="AJ10" s="6">
         <v>1095.3111126357198</v>
@@ -2309,7 +2303,7 @@
       </c>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="6">
-        <v>1064.890500113057</v>
+        <v>1103.7874156981952</v>
       </c>
       <c r="AS10" s="2">
         <v>853.79190084899221</v>
@@ -2422,7 +2416,7 @@
         <v>1130.1574378967284</v>
       </c>
       <c r="AI11" s="6">
-        <v>1133.0609531646605</v>
+        <v>1143.2806118253502</v>
       </c>
       <c r="AJ11" s="6">
         <v>1143.2335570269124</v>
@@ -2447,7 +2441,7 @@
       </c>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="6">
-        <v>1127.0538610157437</v>
+        <v>1137.2298630464184</v>
       </c>
       <c r="AS11" s="2">
         <v>1038.2880940415519</v>
@@ -2469,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F4ABD3-AFEA-4E18-A325-3EF3B563E0AC}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
